--- a/Résultats4A.xlsx
+++ b/Résultats4A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Documents\PolytechNancy\4A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FE03384-1D5F-4CE5-A717-18931820FF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D42D1C9-B0A1-489B-9A9D-EB72568A41BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="1" xr2:uid="{C1B6E706-2E5D-4548-8EFE-D0FD9CE47F0A}"/>
   </bookViews>
@@ -227,10 +227,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,13 +731,13 @@
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1114,13 +1114,13 @@
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
@@ -1291,18 +1291,21 @@
         <v>2</v>
       </c>
       <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
         <f>4.5*4</f>
         <v>18</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>20</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>17</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <f>IFERROR(AVERAGE(D17:H17),"")</f>
-        <v>18.333333333333332</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
@@ -1457,7 +1460,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I4 I5:I20" formulaRange="1"/>
+    <ignoredError sqref="I4 I5:I16 I18:I20" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Résultats4A.xlsx
+++ b/Résultats4A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Documents\PolytechNancy\4A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D42D1C9-B0A1-489B-9A9D-EB72568A41BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7600DC60-0207-4C80-A8D3-15A17AEFEF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="1" xr2:uid="{C1B6E706-2E5D-4548-8EFE-D0FD9CE47F0A}"/>
   </bookViews>
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="B1" s="2">
         <f>IFERROR(SUMPRODUCT(C26:C30,B26:B30)/SUM(B26:B30),"")</f>
-        <v>3</v>
+        <v>10.408666666666667</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>27</v>
@@ -1175,9 +1175,12 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="I8" t="str">
+      <c r="D8">
+        <v>15.8</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="0"/>
-        <v/>
+        <v>15.8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
@@ -1190,9 +1193,24 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="I9" t="str">
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="0"/>
-        <v/>
+        <v>13.6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
@@ -1223,9 +1241,12 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="I11" t="str">
+      <c r="D11">
+        <v>13.33</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="0"/>
-        <v/>
+        <v>13.33</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
@@ -1238,9 +1259,12 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="I12" t="str">
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="0"/>
-        <v/>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
@@ -1291,21 +1315,24 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17">
         <f>4.5*4</f>
         <v>18</v>
       </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
       <c r="F17">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G17">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>18</v>
       </c>
       <c r="I17" s="8">
         <f>IFERROR(AVERAGE(D17:H17),"")</f>
-        <v>17.75</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
@@ -1385,7 +1412,7 @@
       </c>
       <c r="C27">
         <f>IFERROR(AVERAGE(I4,I9),0)</f>
-        <v>0</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.5">
@@ -1397,7 +1424,7 @@
       </c>
       <c r="C28">
         <f>IFERROR(AVERAGE(I5,I10,I11,I16),"")</f>
-        <v>15</v>
+        <v>14.443333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.5">
@@ -1420,7 +1447,7 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>19.7</v>
       </c>
     </row>
   </sheetData>

--- a/Résultats4A.xlsx
+++ b/Résultats4A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Documents\PolytechNancy\4A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7600DC60-0207-4C80-A8D3-15A17AEFEF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E753E5E1-181F-4B43-AC22-8497B4AF819C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="1" xr2:uid="{C1B6E706-2E5D-4548-8EFE-D0FD9CE47F0A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>Systèmes distribués</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Cybersécurité</t>
-  </si>
-  <si>
-    <t>Méthodes de travail inter-équipes</t>
   </si>
   <si>
     <t>Robotique mobile autonome</t>
@@ -711,43 +708,43 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="7">
         <f>IFERROR(SUMPRODUCT(C24:C27,B24:B27)/SUM(B24:B27),"")</f>
         <v>14.678000000000001</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -766,10 +763,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -788,10 +785,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -809,17 +806,17 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -834,10 +831,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -852,10 +849,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -870,10 +867,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -891,17 +888,17 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -916,10 +913,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6">
         <v>2</v>
@@ -934,10 +931,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -952,10 +949,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="6">
         <v>4</v>
@@ -979,18 +976,18 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3">
         <v>8</v>
@@ -1002,7 +999,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3">
         <v>8</v>
@@ -1014,7 +1011,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3">
         <v>6</v>
@@ -1026,7 +1023,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3">
         <v>8</v>
@@ -1079,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00BBC02-4A7A-48A4-8ACD-019EA6A3E612}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1092,60 +1089,64 @@
     <col min="3" max="3" width="9.41015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2">
+        <f>IFERROR(SUMPRODUCT(C25:C29,B25:B29)/SUM(B25:B29),"")</f>
+        <v>16.452777777777779</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2">
-        <f>IFERROR(SUMPRODUCT(C26:C30,B26:B30)/SUM(B26:B30),"")</f>
-        <v>10.408666666666667</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I3" s="9"/>
+      <c r="J3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>18.5</v>
+      </c>
+      <c r="J4">
+        <f>IFERROR(AVERAGE(D4:I4),"")</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="str">
-        <f>IFERROR(AVERAGE(D4:H4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1153,24 +1154,27 @@
       <c r="D5">
         <v>10</v>
       </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I20" si="0">IFERROR(AVERAGE(D5:H5),"")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J19" si="0">IFERROR(AVERAGE(D5:I5),"")</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1178,17 +1182,17 @@
       <c r="D8">
         <v>15.8</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>15.8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1208,17 +1212,17 @@
       <c r="H9">
         <v>6</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>13.6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1226,35 +1230,47 @@
       <c r="D10">
         <v>20</v>
       </c>
-      <c r="I10">
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+        <v>16.333333333333332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>13.33</v>
-      </c>
-      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="0"/>
-        <v>13.33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1262,136 +1278,128 @@
       <c r="D12">
         <v>17</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="str">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f>4.5*4</f>
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>-14</v>
+      </c>
+      <c r="I16">
+        <v>18</v>
+      </c>
+      <c r="J16" s="8">
+        <f>IFERROR(AVERAGE(D16:I16),"")</f>
+        <v>12.333333333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <f>4.5*4</f>
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>20</v>
-      </c>
-      <c r="F17">
-        <v>17</v>
-      </c>
-      <c r="G17">
-        <v>15</v>
-      </c>
-      <c r="H17">
-        <v>18</v>
-      </c>
-      <c r="I17" s="8">
-        <f>IFERROR(AVERAGE(D17:H17),"")</f>
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="str">
+        <v>2</v>
+      </c>
+      <c r="J18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="I19" t="str">
+        <v>4</v>
+      </c>
+      <c r="J19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <f>IFERROR((C12*J12+C17*J17+C18*J18)/4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1399,23 +1407,23 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <f>IFERROR((C12*I12+C18*I18+C19*I19)/4,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+        <f>IFERROR(AVERAGE(J4,J9),0)</f>
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <f>IFERROR(AVERAGE(I4,I9),0)</f>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+        <f>IFERROR(AVERAGE(J5,J10,J11,J15),"")</f>
+        <v>14.388888888888888</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1423,38 +1431,26 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <f>IFERROR(AVERAGE(I5,I10,I11,I16),"")</f>
-        <v>14.443333333333333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+        <f>IFERROR((C8*J8+C16*J16)/4,0)</f>
+        <v>14.066666666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <f>IFERROR((C8*I8+C15*I15+C17*I17+C20*I20)/9,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="3">
-        <v>8</v>
-      </c>
-      <c r="C30">
         <v>19.7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D3:I3"/>
   </mergeCells>
-  <conditionalFormatting sqref="I15:I20 I8:I12 I4:I5">
+  <conditionalFormatting sqref="J8:J12 J4:J5 J15:J19">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>""</formula>
     </cfRule>
@@ -1469,7 +1465,7 @@
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C30">
+  <conditionalFormatting sqref="C26:C29 D25">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
@@ -1487,7 +1483,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I4 I5:I16 I18:I20" formulaRange="1"/>
+    <ignoredError sqref="J4 J5:J14 J17:J19 J15" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>